--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52900.83856282015</v>
+        <v>-42543.24591346164</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>392609.2501823992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32226244.99984872</v>
+        <v>26888181.54829256</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1836757.714283067</v>
+        <v>4209343.132186226</v>
       </c>
     </row>
     <row r="11">
@@ -8772,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M12" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N12" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O12" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P12" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -9009,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M15" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N15" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O15" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P15" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9246,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M18" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N18" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O18" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P18" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9483,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M21" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N21" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O21" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P21" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9720,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M24" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N24" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O24" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9957,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M27" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N27" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10194,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M30" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N30" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O30" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10431,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M33" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N33" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O33" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10668,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M36" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N36" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P36" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10905,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M39" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N39" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O39" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P39" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11142,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>96.41848977889939</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M42" t="n">
-        <v>121.083316575</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N42" t="n">
-        <v>124.6290173293239</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O42" t="n">
-        <v>102.4042030119497</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P42" t="n">
-        <v>82.80031984638366</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11303,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11379,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M45" t="n">
-        <v>121.083316575</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N45" t="n">
-        <v>124.6290173293239</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>102.4042030119497</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638366</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H11" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I11" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L11" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N11" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P11" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q11" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R11" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S11" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U11" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,49 +23351,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H12" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I12" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J12" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L12" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R12" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S12" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T12" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H13" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J13" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K13" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L13" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M13" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N13" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O13" t="n">
-        <v>160.1018542306906</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P13" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R13" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S13" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H14" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I14" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J14" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L14" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M14" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N14" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P14" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q14" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R14" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S14" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T14" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U14" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,49 +23588,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H15" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I15" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J15" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L15" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R15" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S15" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T15" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H16" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I16" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J16" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K16" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L16" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M16" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N16" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O16" t="n">
-        <v>160.1018542306906</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P16" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R16" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S16" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H17" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I17" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J17" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K17" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M17" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N17" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P17" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q17" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R17" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S17" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T17" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U17" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,49 +23825,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H18" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I18" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J18" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L18" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R18" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S18" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T18" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H19" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I19" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J19" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K19" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L19" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M19" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N19" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O19" t="n">
-        <v>160.1018542306906</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P19" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R19" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S19" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H20" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I20" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J20" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L20" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M20" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N20" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P20" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R20" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S20" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T20" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U20" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,49 +24062,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H21" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I21" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J21" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K21" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L21" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R21" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S21" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T21" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H22" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I22" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J22" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K22" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L22" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M22" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N22" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O22" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P22" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R22" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S22" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H23" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I23" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J23" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L23" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M23" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N23" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P23" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q23" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R23" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S23" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T23" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U23" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,49 +24299,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H24" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I24" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J24" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L24" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R24" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S24" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T24" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H25" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I25" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J25" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K25" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L25" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M25" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N25" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O25" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P25" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R25" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S25" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H26" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I26" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L26" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M26" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N26" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P26" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q26" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R26" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S26" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T26" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U26" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,49 +24536,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H27" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I27" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J27" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K27" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L27" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R27" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S27" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T27" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H28" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I28" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J28" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K28" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L28" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M28" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N28" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O28" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P28" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R28" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S28" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H29" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I29" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J29" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L29" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M29" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N29" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P29" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q29" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R29" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S29" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U29" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,49 +24773,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H30" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I30" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K30" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L30" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R30" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S30" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T30" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H31" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I31" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J31" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K31" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L31" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M31" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O31" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P31" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R31" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S31" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H32" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I32" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J32" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L32" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M32" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N32" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P32" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q32" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R32" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S32" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T32" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U32" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,49 +25010,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H33" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I33" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J33" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K33" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L33" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R33" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S33" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T33" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H34" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I34" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J34" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K34" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L34" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M34" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N34" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O34" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P34" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R34" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S34" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H35" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I35" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J35" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M35" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N35" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P35" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q35" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R35" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S35" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U35" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,49 +25247,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H36" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I36" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J36" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K36" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L36" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R36" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S36" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T36" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H37" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I37" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J37" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K37" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L37" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M37" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N37" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O37" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P37" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q37" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R37" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S37" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H38" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I38" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J38" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M38" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N38" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P38" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q38" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R38" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S38" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T38" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U38" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,49 +25484,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H39" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I39" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J39" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K39" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L39" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R39" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S39" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T39" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H40" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I40" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K40" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L40" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M40" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N40" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O40" t="n">
-        <v>160.1018542306906</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P40" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R40" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S40" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>423.590221574262</v>
+        <v>422.3471385867855</v>
       </c>
       <c r="H41" t="n">
-        <v>364.0964285766221</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I41" t="n">
-        <v>307.6301510626203</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J41" t="n">
-        <v>220.8145154255395</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2164661104893</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M41" t="n">
-        <v>220.0078473867499</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N41" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>237.5105870759031</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P41" t="n">
-        <v>254.5105921674962</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q41" t="n">
-        <v>269.9201738698072</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R41" t="n">
-        <v>298.2075798861928</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S41" t="n">
-        <v>267.3897500463082</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5143983667847</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U41" t="n">
-        <v>248.90160553674</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,49 +25721,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.7691958893245</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H42" t="n">
-        <v>145.0346254522244</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I42" t="n">
-        <v>142.9187864913679</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J42" t="n">
-        <v>152.7163598114938</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K42" t="n">
-        <v>132.8321428767296</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L42" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>150.1032497894857</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R42" t="n">
-        <v>201.2206403963539</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S42" t="n">
-        <v>222.0319792704162</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T42" t="n">
-        <v>233.1353692460508</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8667022829468</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H43" t="n">
-        <v>173.1995317301106</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I43" t="n">
-        <v>186.7511453295697</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J43" t="n">
-        <v>176.9853811112088</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K43" t="n">
-        <v>160.9285108247983</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L43" t="n">
-        <v>155.0254166605068</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M43" t="n">
-        <v>156.7664471869165</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N43" t="n">
-        <v>142.0675024008435</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O43" t="n">
-        <v>160.1018542306906</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P43" t="n">
-        <v>166.3254994602277</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5868957048492</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R43" t="n">
-        <v>249.4848999638325</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S43" t="n">
-        <v>254.7116329346421</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7883730085969</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2540702168835</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>423.590221574262</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H44" t="n">
-        <v>364.0964285766221</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I44" t="n">
-        <v>307.6301510626203</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J44" t="n">
-        <v>220.8145154255395</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6035998847812</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2164661104893</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M44" t="n">
-        <v>220.0078473867499</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>221.8064051628984</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>237.5105870759031</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>254.5105921674962</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q44" t="n">
-        <v>269.9201738698072</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R44" t="n">
-        <v>298.2075798861928</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S44" t="n">
-        <v>267.3897500463082</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5143983667847</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U44" t="n">
-        <v>248.90160553674</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,49 +25958,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.7691958893245</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H45" t="n">
-        <v>145.0346254522244</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I45" t="n">
-        <v>142.9187864913679</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J45" t="n">
-        <v>152.7163598114938</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K45" t="n">
-        <v>132.8321428767296</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L45" t="n">
-        <v>106.2172906491666</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>86.78770803595184</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>67.45823659255106</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>106.1428044880503</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>113.1372509970743</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1032497894857</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R45" t="n">
-        <v>201.2206403963539</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S45" t="n">
-        <v>222.0319792704162</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T45" t="n">
-        <v>233.1353692460508</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6991748357862</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8667022829468</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H46" t="n">
-        <v>173.1995317301106</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I46" t="n">
-        <v>186.7511453295697</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J46" t="n">
-        <v>176.9853811112088</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K46" t="n">
-        <v>160.9285108247983</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L46" t="n">
-        <v>155.0254166605068</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M46" t="n">
-        <v>156.7664471869165</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N46" t="n">
-        <v>142.0675024008435</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O46" t="n">
-        <v>160.1018542306906</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P46" t="n">
-        <v>166.3254994602277</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5868957048492</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R46" t="n">
-        <v>249.4848999638325</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S46" t="n">
-        <v>254.7116329346421</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7883730085969</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2540702168835</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158846.1634014352</v>
+        <v>430677.0900385178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158846.1634014352</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>18687.7839295806</v>
       </c>
       <c r="E2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918895</v>
       </c>
       <c r="F2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918895</v>
       </c>
       <c r="G2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918895</v>
       </c>
       <c r="H2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="I2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="J2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="K2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="L2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="M2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="N2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918894</v>
       </c>
       <c r="O2" t="n">
-        <v>18687.7839295806</v>
+        <v>54001.90204918895</v>
       </c>
       <c r="P2" t="n">
-        <v>18687.7839295806</v>
+        <v>57277.56073838445</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248425.7795951587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27577.58605616639</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>14015.83794718545</v>
       </c>
       <c r="E4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="F4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="G4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="H4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="I4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="J4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="K4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="L4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="M4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="N4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="O4" t="n">
-        <v>14015.83794718545</v>
+        <v>12162.34915730384</v>
       </c>
       <c r="P4" t="n">
-        <v>14015.83794718545</v>
+        <v>10847.6596249392</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6740.928270338123</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7644.193075596166</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28955.65401760485</v>
+        <v>-28955.65401760484</v>
       </c>
       <c r="C6" t="n">
-        <v>-28955.65401760485</v>
+        <v>-28955.65401760484</v>
       </c>
       <c r="D6" t="n">
-        <v>-28955.65401760485</v>
+        <v>-28955.65401760484</v>
       </c>
       <c r="E6" t="n">
-        <v>4671.945982395151</v>
+        <v>-213327.1549736117</v>
       </c>
       <c r="F6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154698</v>
       </c>
       <c r="G6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154698</v>
       </c>
       <c r="H6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="I6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="J6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="K6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="L6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="M6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="N6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154697</v>
       </c>
       <c r="O6" t="n">
-        <v>4671.945982395151</v>
+        <v>35098.62462154698</v>
       </c>
       <c r="P6" t="n">
-        <v>4671.945982395151</v>
+        <v>11208.12198168269</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>350.6510585135856</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>41.43416537880933</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_6_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42543.24591346164</v>
+        <v>-196558.2401200624</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392609.2501823992</v>
+        <v>633635.6644492511</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26888181.54829256</v>
+        <v>26437778.47852815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4209343.132186226</v>
+        <v>4404312.865296106</v>
       </c>
     </row>
     <row r="11">
@@ -8698,10 +8698,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N11" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8774,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M12" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N12" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P12" t="n">
-        <v>68.93110769910051</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N14" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O14" t="n">
         <v>99.00804712831379</v>
@@ -9011,19 +9011,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M15" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N15" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P15" t="n">
-        <v>68.93110769910051</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N17" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O17" t="n">
         <v>99.00804712831379</v>
@@ -9248,19 +9248,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M18" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N18" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P18" t="n">
-        <v>68.93110769910051</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,10 +9409,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N20" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O20" t="n">
         <v>99.00804712831379</v>
@@ -9485,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M21" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N21" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P21" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N23" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O23" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9722,19 +9722,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M24" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N24" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P24" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N26" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O26" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9959,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M27" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N27" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P27" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N29" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O29" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M30" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N30" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P30" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,13 +10357,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N32" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O32" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10433,19 +10433,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M33" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N33" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P33" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,13 +10594,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O35" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10670,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M36" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N36" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P36" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N38" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O38" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10907,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M39" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N39" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P39" t="n">
-        <v>68.93110769910052</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11068,13 +11068,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>116.8735187081365</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N41" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O41" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11144,19 +11144,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>58.22273991262165</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M42" t="n">
-        <v>39.34781785249876</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N42" t="n">
-        <v>19.10373933697781</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P42" t="n">
-        <v>68.93110769910051</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,13 +11305,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>89.35872216232903</v>
+        <v>89.358722162329</v>
       </c>
       <c r="N44" t="n">
-        <v>83.98878642167108</v>
+        <v>83.98878642167105</v>
       </c>
       <c r="O44" t="n">
-        <v>99.00804712831379</v>
+        <v>99.00804712831376</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.09636626239171</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P45" t="n">
-        <v>51.91261060228356</v>
+        <v>51.91261060228354</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23272,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H11" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I11" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J11" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K11" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L11" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M11" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R11" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S11" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H12" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I12" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J12" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K12" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R12" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S12" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T12" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H13" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I13" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J13" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K13" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L13" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M13" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N13" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O13" t="n">
-        <v>81.28703038709219</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R13" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S13" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H14" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I14" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J14" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K14" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L14" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M14" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R14" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S14" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H15" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I15" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J15" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K15" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R15" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S15" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T15" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H16" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I16" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J16" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K16" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L16" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M16" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N16" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O16" t="n">
-        <v>81.28703038709219</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q16" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R16" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S16" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H17" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I17" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J17" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K17" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L17" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M17" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R17" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S17" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H18" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I18" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J18" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K18" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R18" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S18" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T18" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H19" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I19" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J19" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K19" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L19" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M19" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N19" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O19" t="n">
-        <v>81.28703038709219</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P19" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q19" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R19" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S19" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T19" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H20" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I20" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J20" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K20" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L20" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M20" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R20" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S20" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T20" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H21" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I21" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J21" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K21" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R21" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S21" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T21" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H22" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I22" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J22" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K22" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L22" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M22" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N22" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O22" t="n">
-        <v>81.2870303870922</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P22" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q22" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R22" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S22" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T22" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H23" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I23" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J23" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K23" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L23" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M23" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R23" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S23" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H24" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I24" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J24" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K24" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R24" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S24" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T24" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H25" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I25" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J25" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K25" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L25" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M25" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N25" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O25" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q25" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R25" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S25" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T25" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H26" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I26" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J26" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K26" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L26" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M26" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R26" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S26" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T26" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H27" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I27" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J27" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K27" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R27" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S27" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T27" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H28" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I28" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J28" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K28" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L28" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M28" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N28" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O28" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q28" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R28" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S28" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T28" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H29" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I29" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J29" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K29" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L29" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M29" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R29" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S29" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T29" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H30" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I30" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J30" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K30" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R30" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S30" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T30" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H31" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I31" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J31" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K31" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L31" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M31" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N31" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O31" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P31" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q31" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R31" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S31" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T31" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H32" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I32" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J32" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K32" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L32" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M32" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R32" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S32" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T32" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H33" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I33" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J33" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K33" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R33" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S33" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T33" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H34" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I34" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J34" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K34" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L34" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M34" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N34" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O34" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P34" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R34" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S34" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T34" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H35" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I35" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J35" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K35" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L35" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M35" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R35" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S35" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T35" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H36" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I36" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J36" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K36" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R36" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S36" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T36" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H37" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I37" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J37" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K37" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L37" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M37" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N37" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O37" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q37" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R37" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S37" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H38" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I38" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J38" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K38" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L38" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M38" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R38" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S38" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T38" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H39" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I39" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J39" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K39" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R39" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S39" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T39" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H40" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I40" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J40" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K40" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L40" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M40" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N40" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O40" t="n">
-        <v>81.2870303870922</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P40" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q40" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R40" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S40" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T40" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H41" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I41" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J41" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K41" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L41" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M41" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R41" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S41" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T41" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H42" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I42" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J42" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K42" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R42" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S42" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T42" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H43" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I43" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J43" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K43" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L43" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M43" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N43" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O43" t="n">
-        <v>81.28703038709219</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q43" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R43" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S43" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T43" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25894,7 +25894,7 @@
         <v>58.29051612840928</v>
       </c>
       <c r="L44" t="n">
-        <v>13.76272976322227</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>51.80080109985099</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.6935628343943</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R44" t="n">
         <v>209.6584962505987</v>
@@ -25970,7 +25970,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K45" t="n">
-        <v>11.04044456262879</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.82637802552915</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R45" t="n">
         <v>154.3921839405207</v>
@@ -26052,22 +26052,22 @@
         <v>87.46423987719797</v>
       </c>
       <c r="L46" t="n">
-        <v>61.01644271081538</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M46" t="n">
         <v>57.6471651877402</v>
       </c>
       <c r="N46" t="n">
-        <v>45.30505538511905</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O46" t="n">
-        <v>70.7260729557852</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P46" t="n">
         <v>89.84907843621555</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.6385858692978</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R46" t="n">
         <v>221.05342233419</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>430677.0900385178</v>
+        <v>454748.7553474187</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>18687.7839295806</v>
       </c>
       <c r="E2" t="n">
-        <v>54001.90204918895</v>
+        <v>57277.56073838445</v>
       </c>
       <c r="F2" t="n">
-        <v>54001.90204918895</v>
+        <v>57277.56073838445</v>
       </c>
       <c r="G2" t="n">
-        <v>54001.90204918895</v>
+        <v>57277.56073838444</v>
       </c>
       <c r="H2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838445</v>
       </c>
       <c r="I2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="J2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="K2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="L2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="M2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="N2" t="n">
-        <v>54001.90204918894</v>
+        <v>57277.56073838443</v>
       </c>
       <c r="O2" t="n">
-        <v>54001.90204918895</v>
+        <v>57277.56073838444</v>
       </c>
       <c r="P2" t="n">
-        <v>57277.56073838445</v>
+        <v>57277.56073838443</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248425.7795951587</v>
+        <v>281714.1123629902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27577.58605616639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>14015.83794718545</v>
       </c>
       <c r="E4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.6596249392</v>
       </c>
       <c r="F4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.6596249392</v>
       </c>
       <c r="G4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="H4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.6596249392</v>
       </c>
       <c r="I4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="J4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="K4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="L4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="M4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="N4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="O4" t="n">
-        <v>12162.34915730384</v>
+        <v>10847.65962493919</v>
       </c>
       <c r="P4" t="n">
-        <v>10847.6596249392</v>
+        <v>10847.65962493919</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="F5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="G5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="H5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="I5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="J5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="K5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="L5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="M5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="N5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="O5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="P5" t="n">
-        <v>7644.193075596166</v>
+        <v>7644.193075596167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28955.65401760484</v>
+        <v>-50439.81735083729</v>
       </c>
       <c r="C6" t="n">
-        <v>-28955.65401760484</v>
+        <v>-50439.81735083729</v>
       </c>
       <c r="D6" t="n">
-        <v>-28955.65401760484</v>
+        <v>-50439.81735083729</v>
       </c>
       <c r="E6" t="n">
-        <v>-213327.1549736117</v>
+        <v>-259588.8455572731</v>
       </c>
       <c r="F6" t="n">
-        <v>35098.62462154698</v>
+        <v>22125.26680571713</v>
       </c>
       <c r="G6" t="n">
-        <v>35098.62462154698</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="H6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571713</v>
       </c>
       <c r="I6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="J6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="K6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="L6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="M6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="N6" t="n">
-        <v>35098.62462154697</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="O6" t="n">
-        <v>35098.62462154698</v>
+        <v>22125.26680571712</v>
       </c>
       <c r="P6" t="n">
-        <v>11208.12198168269</v>
+        <v>22125.26680571712</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="F3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="G3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="H3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="I3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="J3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="K3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="L3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="M3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="N3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="O3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="P3" t="n">
         <v>350.6510585135856</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.43416537880933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H11" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I11" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J11" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K11" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L11" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M11" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N11" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O11" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P11" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R11" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S11" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T11" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H12" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I12" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J12" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K12" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L12" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M12" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N12" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O12" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P12" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R12" t="n">
-        <v>41.295040935999</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S12" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T12" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H13" t="n">
-        <v>4.957608548947729</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I13" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J13" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K13" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L13" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M13" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N13" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O13" t="n">
-        <v>78.81482384359842</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P13" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R13" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S13" t="n">
-        <v>9.717521051465013</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T13" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H14" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I14" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J14" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K14" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L14" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M14" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N14" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O14" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P14" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R14" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S14" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T14" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H15" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I15" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J15" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K15" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L15" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M15" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N15" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O15" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P15" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R15" t="n">
-        <v>41.295040935999</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S15" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T15" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H16" t="n">
-        <v>4.957608548947729</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I16" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J16" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K16" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L16" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M16" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N16" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O16" t="n">
-        <v>78.81482384359842</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P16" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R16" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S16" t="n">
-        <v>9.717521051465013</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T16" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H17" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I17" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J17" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K17" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L17" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M17" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N17" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O17" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P17" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R17" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S17" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T17" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H18" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I18" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J18" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K18" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L18" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M18" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N18" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P18" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R18" t="n">
-        <v>41.295040935999</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S18" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T18" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H19" t="n">
-        <v>4.957608548947729</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I19" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J19" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K19" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L19" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M19" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N19" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O19" t="n">
-        <v>78.81482384359842</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P19" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R19" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S19" t="n">
-        <v>9.717521051465013</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T19" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H20" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I20" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J20" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K20" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L20" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M20" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N20" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O20" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P20" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R20" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S20" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T20" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H21" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I21" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J21" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K21" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L21" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M21" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N21" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O21" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P21" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R21" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S21" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T21" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H22" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I22" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J22" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K22" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L22" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M22" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N22" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O22" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P22" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R22" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S22" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T22" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H23" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I23" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J23" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K23" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L23" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M23" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N23" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O23" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P23" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R23" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S23" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T23" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H24" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I24" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J24" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K24" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L24" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M24" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N24" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O24" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P24" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R24" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S24" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T24" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H25" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I25" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J25" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K25" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L25" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M25" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N25" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O25" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P25" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R25" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S25" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T25" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H26" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J26" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K26" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L26" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M26" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N26" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O26" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P26" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R26" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S26" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T26" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H27" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I27" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J27" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K27" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L27" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M27" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P27" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R27" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S27" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T27" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H28" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I28" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J28" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K28" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L28" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M28" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N28" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O28" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P28" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R28" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S28" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T28" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H29" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I29" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J29" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K29" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L29" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M29" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N29" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O29" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P29" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q29" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R29" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S29" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T29" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H30" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I30" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J30" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K30" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L30" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M30" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N30" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P30" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R30" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S30" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T30" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H31" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I31" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J31" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K31" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L31" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M31" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N31" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O31" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P31" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R31" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S31" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T31" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H32" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I32" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J32" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K32" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L32" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M32" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N32" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O32" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P32" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R32" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S32" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T32" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H33" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I33" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J33" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K33" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L33" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M33" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N33" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P33" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R33" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S33" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T33" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H34" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I34" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J34" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K34" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L34" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M34" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N34" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O34" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P34" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R34" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S34" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T34" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H35" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I35" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J35" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K35" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L35" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M35" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N35" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O35" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P35" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R35" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S35" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T35" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H36" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I36" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J36" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K36" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L36" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M36" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N36" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P36" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R36" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S36" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T36" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H37" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I37" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J37" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K37" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L37" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M37" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N37" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O37" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P37" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R37" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S37" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T37" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H38" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I38" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J38" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K38" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L38" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M38" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N38" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O38" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P38" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R38" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S38" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T38" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H39" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I39" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J39" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K39" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L39" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M39" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N39" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O39" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P39" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R39" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S39" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T39" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H40" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I40" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J40" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K40" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L40" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M40" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N40" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O40" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P40" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R40" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S40" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T40" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H41" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I41" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J41" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K41" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L41" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M41" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N41" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O41" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P41" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R41" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S41" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T41" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H42" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I42" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J42" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K42" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L42" t="n">
-        <v>144.4130405154444</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M42" t="n">
-        <v>168.5232067584531</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N42" t="n">
-        <v>172.9835145848972</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O42" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P42" t="n">
-        <v>127.0064631443575</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R42" t="n">
-        <v>41.295040935999</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S42" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T42" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H43" t="n">
-        <v>4.957608548947729</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I43" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J43" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K43" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L43" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M43" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N43" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O43" t="n">
-        <v>78.81482384359842</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P43" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R43" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S43" t="n">
-        <v>9.717521051465013</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T43" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,10 +34365,10 @@
         <v>14.43660363015983</v>
       </c>
       <c r="I44" t="n">
-        <v>54.34562787274376</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J44" t="n">
-        <v>119.6424935779595</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K44" t="n">
         <v>179.3130837563719</v>
@@ -34392,13 +34392,13 @@
         <v>152.2266110354129</v>
       </c>
       <c r="R44" t="n">
-        <v>88.54908363559406</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S44" t="n">
         <v>32.12245626483752</v>
       </c>
       <c r="T44" t="n">
-        <v>6.170753803590836</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U44" t="n">
         <v>0.1127721997229621</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H45" t="n">
-        <v>7.284279536291656</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I45" t="n">
         <v>25.96802650312875</v>
@@ -34465,10 +34465,10 @@
         <v>179.4506412376083</v>
       </c>
       <c r="P45" t="n">
-        <v>144.0249602411744</v>
+        <v>144.0249602411745</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.27687176395656</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R45" t="n">
         <v>46.82845645583321</v>
@@ -34520,7 +34520,7 @@
         <v>0.6323215809261379</v>
       </c>
       <c r="H46" t="n">
-        <v>5.621913692234211</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I46" t="n">
         <v>19.0156344518515</v>
@@ -34532,22 +34532,22 @@
         <v>73.46427094760037</v>
       </c>
       <c r="L46" t="n">
-        <v>94.00897394969145</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M46" t="n">
         <v>99.11928199917631</v>
       </c>
       <c r="N46" t="n">
-        <v>96.76244701572442</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O46" t="n">
-        <v>89.37578127490541</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P46" t="n">
         <v>76.47642102401214</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.94830983555142</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R46" t="n">
         <v>28.43147762964252</v>
